--- a/data/trans_dic/P57B_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P57B_R-Estudios-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>19,78; 26,49</t>
+          <t>19,9; 26,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>27,8; 32,95</t>
+          <t>27,96; 32,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>25,65; 29,65</t>
+          <t>25,44; 29,53</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,48; 10,05</t>
+          <t>7,42; 9,92</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,74; 11,86</t>
+          <t>8,72; 11,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,6; 10,65</t>
+          <t>8,4; 10,51</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,58; 8,68</t>
+          <t>4,74; 8,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,15; 11,03</t>
+          <t>7,15; 11,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,3; 9,18</t>
+          <t>6,4; 9,22</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,47; 11,64</t>
+          <t>9,43; 11,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,13; 15,65</t>
+          <t>12,99; 15,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,75; 13,42</t>
+          <t>11,74; 13,33</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P57B_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P57B_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>19,9; 26,77</t>
+          <t>19,78; 26,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>27,96; 32,83</t>
+          <t>27,8; 32,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>25,44; 29,53</t>
+          <t>25,65; 29,65</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,42; 9,92</t>
+          <t>7,48; 10,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,72; 11,9</t>
+          <t>8,74; 11,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,4; 10,51</t>
+          <t>8,6; 10,65</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,74; 8,91</t>
+          <t>4,58; 8,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,15; 11,11</t>
+          <t>7,15; 11,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,4; 9,22</t>
+          <t>6,3; 9,18</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,43; 11,65</t>
+          <t>9,47; 11,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,99; 15,66</t>
+          <t>13,13; 15,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,74; 13,33</t>
+          <t>11,75; 13,42</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P57B_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P57B_R-Estudios-trans_dic.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>23,03%</t>
+          <t>22,31%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>30,42%</t>
+          <t>30,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>27,5%</t>
+          <t>26,86%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>19,78; 26,49</t>
+          <t>19,07; 25,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>27,8; 32,95</t>
+          <t>27,42; 32,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>25,65; 29,65</t>
+          <t>25,05; 28,92</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8,72%</t>
+          <t>7,51%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>10,58%</t>
+          <t>9,53%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9,67%</t>
+          <t>8,51%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,48; 10,05</t>
+          <t>5,31; 8,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,74; 11,86</t>
+          <t>6,72; 11,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,6; 10,65</t>
+          <t>6,76; 9,71</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,32%</t>
+          <t>6,31%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,92%</t>
+          <t>8,76%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,66%</t>
+          <t>7,55%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,58; 8,68</t>
+          <t>4,52; 8,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,15; 11,03</t>
+          <t>7,02; 10,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,3; 9,18</t>
+          <t>6,18; 9,06</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10,5%</t>
+          <t>9,46%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>14,53%</t>
+          <t>13,52%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>12,63%</t>
+          <t>11,54%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,47; 11,64</t>
+          <t>7,2; 10,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,13; 15,65</t>
+          <t>11,23; 14,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,75; 13,42</t>
+          <t>10,08; 12,56</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P57B_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P57B_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>19,07; 25,69</t>
+          <t>19,08; 25,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>27,42; 32,41</t>
+          <t>27,55; 32,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>25,05; 28,92</t>
+          <t>24,94; 28,86</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,31; 8,91</t>
+          <t>5,21; 8,92</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,72; 11,15</t>
+          <t>6,66; 11,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,76; 9,71</t>
+          <t>6,77; 9,65</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,52; 8,69</t>
+          <t>4,46; 8,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,02; 10,73</t>
+          <t>7,07; 10,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,18; 9,06</t>
+          <t>6,27; 8,91</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,2; 10,72</t>
+          <t>7,42; 10,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,23; 14,96</t>
+          <t>11,25; 14,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,08; 12,56</t>
+          <t>9,93; 12,48</t>
         </is>
       </c>
     </row>
@@ -760,4 +761,388 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con bienestar emocional por debajo del percentil 15 (Bericat)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>438</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>602</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>111707</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>217768</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>329475</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>95563; 128283</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>199940; 238163</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>305933; 354024</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>378</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>593</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>170209</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>211102</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>381311</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>117993; 202099</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>147610; 246259</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>303094; 432420</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>40527</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>57520</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>98047</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>28686; 56296</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>46443; 70647</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>81461; 115754</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>424</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1331</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>322443</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>486390</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>808833</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>252816; 362640</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>404852; 538177</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>695377; 874319</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>